--- a/data/trans_dic/P5_5-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_5-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de balcón en su vivienda</t>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,22%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>39,62%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,84; 46,09</t>
+          <t>29,61; 45,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,88; 48,82</t>
+          <t>32,41; 52,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,81; 43,37</t>
+          <t>31,25; 45,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,51; 43,65</t>
+          <t>31,21; 45,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,73; 42,38</t>
+          <t>32,56; 43,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,51; 43,83</t>
+          <t>34,16; 46,45</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>55,4%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,32%</t>
+          <t>57,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,05%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>46,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,67%</t>
+          <t>51,81%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,36; 62,57</t>
+          <t>49,21; 67,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,96; 59,78</t>
+          <t>49,32; 67,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,98; 52,94</t>
+          <t>38,47; 54,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,41; 53,08</t>
+          <t>38,76; 54,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,37; 55,75</t>
+          <t>45,65; 57,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,6; 54,84</t>
+          <t>45,63; 57,97</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>56,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>51,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,61%</t>
+          <t>50,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>56,58%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,59; 69,51</t>
+          <t>33,18; 81,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,32; 71,91</t>
+          <t>39,81; 84,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,58; 67,18</t>
+          <t>34,34; 68,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,44; 65,61</t>
+          <t>33,81; 67,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,41; 64,41</t>
+          <t>39,48; 69,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,74; 65,22</t>
+          <t>41,9; 71,95</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>43,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,2%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>46,37%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,49; 51,94</t>
+          <t>41,17; 53,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,42; 52,64</t>
+          <t>43,62; 57,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,26; 47,17</t>
+          <t>37,54; 47,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,53; 47,57</t>
+          <t>37,81; 48,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,32; 48,17</t>
+          <t>41,16; 49,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,99; 48,74</t>
+          <t>42,29; 50,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>135415</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>175414</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>167578</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>196568</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>302993</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>371982</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>108282; 166032</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>139394; 227893</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>136046; 196850</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>158792; 229327</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>260869; 351023</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>320728; 436115</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>175375</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>207583</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>163056</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>198960</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>338431</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>406543</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>149943; 205807</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>177273; 243346</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>134679; 190954</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>164881; 232474</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>298927; 378173</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>358089; 454926</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47510</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63861</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42590</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50954</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>90099</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>114815</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28145; 68775</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>40519; 86420</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28372; 56867</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34205; 68454</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66097; 117113</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>85034; 146019</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>358301</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>446857</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>373223</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>446482</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>731524</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>893340</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>310938; 407810</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>388732; 510414</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>325845; 415507</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>391417; 497674</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>668186; 802617</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>814728; 976245</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>